--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -546,40 +546,40 @@
         <v>0.962024</v>
       </c>
       <c r="I2">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J2">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N2">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O2">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P2">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q2">
-        <v>0.02802985193866667</v>
+        <v>0.07432137790311111</v>
       </c>
       <c r="R2">
-        <v>0.252268667448</v>
+        <v>0.6688924011280001</v>
       </c>
       <c r="S2">
-        <v>0.007339708511715871</v>
+        <v>0.00589101359545329</v>
       </c>
       <c r="T2">
-        <v>0.009860536784971351</v>
+        <v>0.008443230820227401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.962024</v>
       </c>
       <c r="I3">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J3">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>2.96751</v>
       </c>
       <c r="O3">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P3">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q3">
         <v>0.3172017600266667</v>
@@ -638,10 +638,10 @@
         <v>2.85481584024</v>
       </c>
       <c r="S3">
-        <v>0.08306031951554173</v>
+        <v>0.02514269694050685</v>
       </c>
       <c r="T3">
-        <v>0.1115874471918236</v>
+        <v>0.03603549546644529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.962024</v>
       </c>
       <c r="I4">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J4">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N4">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O4">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P4">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q4">
-        <v>0.6134477512613333</v>
+        <v>0.7416415111404445</v>
       </c>
       <c r="R4">
-        <v>5.521029761352001</v>
+        <v>6.674773600264</v>
       </c>
       <c r="S4">
-        <v>0.1606333023548588</v>
+        <v>0.0587855116299989</v>
       </c>
       <c r="T4">
-        <v>0.2158029279000919</v>
+        <v>0.08425369175184387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.962024</v>
       </c>
       <c r="I5">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J5">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N5">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O5">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P5">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q5">
-        <v>0.1265034302653333</v>
+        <v>0.08794951677866666</v>
       </c>
       <c r="R5">
-        <v>0.759020581592</v>
+        <v>0.527697100672</v>
       </c>
       <c r="S5">
-        <v>0.03312533744064754</v>
+        <v>0.006971235109931732</v>
       </c>
       <c r="T5">
-        <v>0.02966817259175086</v>
+        <v>0.006660964329427132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.962024</v>
       </c>
       <c r="I6">
-        <v>0.3143489699528113</v>
+        <v>0.1309698538606213</v>
       </c>
       <c r="J6">
-        <v>0.4074782680148976</v>
+        <v>0.1843806287874228</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N6">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O6">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P6">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q6">
-        <v>0.115294728304</v>
+        <v>0.4312093002186666</v>
       </c>
       <c r="R6">
-        <v>1.037652554736</v>
+        <v>3.880883701968</v>
       </c>
       <c r="S6">
-        <v>0.03019030213004725</v>
+        <v>0.03417939658473054</v>
       </c>
       <c r="T6">
-        <v>0.04055918354625987</v>
+        <v>0.04898724641947914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H7">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I7">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J7">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N7">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O7">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P7">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q7">
-        <v>0.06113809393649999</v>
+        <v>0.4931479725796667</v>
       </c>
       <c r="R7">
-        <v>0.366828563619</v>
+        <v>2.958887835478</v>
       </c>
       <c r="S7">
-        <v>0.01600921008921887</v>
+        <v>0.03908890675875686</v>
       </c>
       <c r="T7">
-        <v>0.01433839002653371</v>
+        <v>0.03734916546214898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H8">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I8">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J8">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.96751</v>
       </c>
       <c r="O8">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P8">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q8">
-        <v>0.6918734727449999</v>
+        <v>2.10474306679</v>
       </c>
       <c r="R8">
-        <v>4.15124083647</v>
+        <v>12.62845840074</v>
       </c>
       <c r="S8">
-        <v>0.1811693343242987</v>
+        <v>0.1668304648167309</v>
       </c>
       <c r="T8">
-        <v>0.1622613834107054</v>
+        <v>0.1594052929907388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H9">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I9">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J9">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N9">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O9">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P9">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q9">
-        <v>1.3380386854635</v>
+        <v>4.921047186135667</v>
       </c>
       <c r="R9">
-        <v>8.028232112781</v>
+        <v>29.526283116814</v>
       </c>
       <c r="S9">
-        <v>0.3503698110925064</v>
+        <v>0.3900621422168069</v>
       </c>
       <c r="T9">
-        <v>0.3138030531781481</v>
+        <v>0.3727015334577529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H10">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I10">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J10">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N10">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O10">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P10">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q10">
-        <v>0.27592648793775</v>
+        <v>0.5835753737680001</v>
       </c>
       <c r="R10">
-        <v>1.103705951751</v>
+        <v>2.334301495072</v>
       </c>
       <c r="S10">
-        <v>0.07225225436638201</v>
+        <v>0.04625654902847428</v>
       </c>
       <c r="T10">
-        <v>0.04314104183895879</v>
+        <v>0.02946519693400325</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6994484999999999</v>
+        <v>2.127787</v>
       </c>
       <c r="H11">
-        <v>1.398897</v>
+        <v>4.255574</v>
       </c>
       <c r="I11">
-        <v>0.6856510300471887</v>
+        <v>0.8690301461393787</v>
       </c>
       <c r="J11">
-        <v>0.5925217319851024</v>
+        <v>0.8156193712125771</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N11">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O11">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P11">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q11">
-        <v>0.2514783147929999</v>
+        <v>2.861222412178</v>
       </c>
       <c r="R11">
-        <v>1.508869888758</v>
+        <v>17.167334473068</v>
       </c>
       <c r="S11">
-        <v>0.06585042017478261</v>
+        <v>0.2267920833186097</v>
       </c>
       <c r="T11">
-        <v>0.05897786353075629</v>
+        <v>0.2166981823679332</v>
       </c>
     </row>
   </sheetData>
